--- a/biology/Médecine/Henning_Scheunemann/Henning_Scheunemann.xlsx
+++ b/biology/Médecine/Henning_Scheunemann/Henning_Scheunemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henning Scheunemann (ou Hennung Scheunemann, né vers 1570 à Halberstadt et mort en 1615) est un médecin et alchimiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né vers 1570 à Halberstadt, Scheunemann a étudié à partir de 1586 à Wurtzbourg, où il suit en 1594 les premiers cours d'Adriaan van Roomen (l'Adrien Romain cher à François Viète) et passe sous sa direction son doctorat de médecine.
 De 1599, il enseigne la physique, au Lycée de Bamberg. En 1601 il est nommé médecin du prince-évêque de Bamberg, Johann Philipp von Gebsattel. À la mort du prince évêque, sa nomination, n'est pas renouvelé. En 1610, Scheunemann déménage pour Aschersleben, où il est devient médecin de ville. où il meurt en 1615.
@@ -543,7 +557,9 @@
           <t>Un médecin renommé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Scheunemann est un des représentants les plus en vue à l'époque du paracelsisme en  médecine. Par ailleurs, il fut en contact étroit avec les alchimistes Heinrich Khunrath et Johann Thölde.
 </t>
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la)   Paracelsia ... de morbo mercuriali contagioso, Bamberg, 1608.
  (la)  Paracelsia ... de morbo sulphureo cagastrico, Francfort-sur-le-Main, 1610.
@@ -607,7 +625,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Oliver Humberg : Notes sur la Vie de Henning Scheunemann... Freiberg 2007.</t>
         </is>
